--- a/Model building/Direct_indirect_effect.xlsx
+++ b/Model building/Direct_indirect_effect.xlsx
@@ -174,6 +174,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -200,14 +201,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -245,12 +246,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,36 +350,36 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -391,468 +396,468 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>-0.099</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.016</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.055</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>-0.154</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>-0.026</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.049</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>-0.076</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>-0.03</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>0.111</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.011</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>-0.141</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>-0.058</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.044</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>-0.102</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.023</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.027</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.068</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>-0.05</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.026</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.176</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.106</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>-0.081</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>-0.144</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>0.032</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.058</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>-0.058</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>0.034</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>-0.058</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.051</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>-0.109</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>0.022</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>428</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>-0.027</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.068</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>-0.095</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>440</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.011</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.057</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>-0.046</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0.019</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>528</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>604</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.074</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0.101</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>-0.028</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>616</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>-0.083</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>0.055</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>-0.139</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>0.017</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>620</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>643</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>0.061</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>0.019</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>688</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>-0.087</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>0.041</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>-0.129</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>0.025</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>703</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>724</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>0.085</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>-0.066</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>810</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>-0.072</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>-0.34</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -878,36 +883,36 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -924,475 +929,475 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.092</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.061</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.031</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.019</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.044</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.026</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.032</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.012</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.025</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>-0.029</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>0.017</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>-0.046</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.097</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.054</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>0.044</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>-0.051</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>0.017</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>-0.075</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.176</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.106</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.101</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>0.061</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0.022</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>-0.014</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.032</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>-0.045</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>0.029</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.102</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.035</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>0.067</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>428</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>-0.03</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>-0.06</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.023</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>440</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.034</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>-0.009</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>528</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>604</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.041</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0.039</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>616</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>-0.034</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>0.035</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>-0.069</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>620</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>643</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>-0.008</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>0.017</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0.034</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>-0.042</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>0.017</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>688</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.058</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>0.038</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>0.027</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>703</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>724</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>810</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>-0.008</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>-0.022</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1407,1126 +1412,1144 @@
   </sheetPr>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="n">
+      <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="n">
+      <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.141</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>-0.099</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.016</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.055</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.006</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>-0.154</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="2" t="n">
         <v>0.016</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>0.092</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="3" t="n">
         <v>0.061</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="4" t="n">
         <v>0.006</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="3" t="n">
         <v>0.031</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="4" t="n">
         <v>0.019</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.583</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>-0.026</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.049</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>-0.076</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>0.044</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>0.026</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>0.032</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="1" t="n">
         <v>0.012</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <v>0.025</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.784</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>-0.03</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>0.111</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.011</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>-0.141</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>-0.029</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>0.017</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="1" t="n">
         <v>-0.046</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.544</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>-0.058</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>0.044</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>-0.102</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>0.097</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>0.054</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="1" t="n">
         <v>0.044</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.577</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>0.027</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>0.068</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>-0.05</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>0.026</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>-0.051</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <v>0.017</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="1" t="n">
         <v>-0.075</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="1" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.724</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.176</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>0.106</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>0.176</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <v>0.106</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="1" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.424</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>-0.081</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>-0.144</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>0.101</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="1" t="n">
         <v>0.061</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="1" t="n">
         <v>0.022</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>0.122</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>0.032</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>0.058</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>-0.058</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>0.034</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>-0.014</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <v>0.032</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="1" t="n">
         <v>-0.045</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="1" t="n">
         <v>0.029</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.762</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>-0.058</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>0.051</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>-0.109</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>0.102</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <v>0.035</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="1" t="n">
         <v>0.067</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>428</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.55</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>-0.027</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>0.068</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>-0.095</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>-0.03</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="1" t="n">
         <v>-0.06</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="1" t="n">
         <v>0.023</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>440</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.613</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.011</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>0.057</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>-0.046</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="1" t="n">
         <v>0.034</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="1" t="n">
         <v>-0.009</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>528</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>0.94</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="0" t="s">
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>604</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.309</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0.074</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>0.101</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>-0.028</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>0.041</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="1" t="n">
         <v>0.039</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="1" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>616</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.555</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>-0.083</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>0.055</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>-0.139</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>0.017</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>-0.034</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="1" t="n">
         <v>0.035</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="1" t="n">
         <v>-0.069</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="1" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>620</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>0.591</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="0" t="s">
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>643</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0.061</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>-0.008</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="1" t="n">
         <v>0.017</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="1" t="n">
         <v>0.034</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="1" t="n">
         <v>-0.042</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="1" t="n">
         <v>0.017</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>688</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.423</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>-0.087</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>0.041</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>-0.129</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>0.058</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="1" t="n">
         <v>0.038</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="1" t="n">
         <v>0.027</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>703</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>0.559</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="0" t="s">
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>724</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>0.627</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>0.085</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <v>-0.066</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="1" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>810</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>0.937</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>-0.072</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <v>-0.34</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <v>-0.008</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="1" t="n">
         <v>0.021</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22" s="1" t="n">
         <v>-0.022</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="1" t="n">
         <v>0.021</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="1" t="n">
         <f aca="false">MIN(G3:G22)</f>
         <v>0.041</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <f aca="false">MIN(H3:H22)</f>
         <v>0.006</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="1" t="n">
         <f aca="false">MIN(I3:I22)</f>
         <v>-0.34</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="1" t="n">
         <f aca="false">MIN(J3:J22)</f>
         <v>0.016</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <f aca="false">MAX(G3:G22)</f>
         <v>0.111</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <f aca="false">MAX(H3:H22)</f>
         <v>0.018</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="1" t="n">
         <f aca="false">MAX(I3:I22)</f>
         <v>0.07</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="1" t="n">
         <f aca="false">MAX(J3:J22)</f>
         <v>0.034</v>
       </c>
@@ -2534,7 +2557,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Model building/Direct_indirect_effect.xlsx
+++ b/Model building/Direct_indirect_effect.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">fam_dir_sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">min</t>
@@ -192,24 +189,12 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,24 +231,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,66 +249,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -347,10 +260,10 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -403,19 +316,19 @@
         <v>76</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-0.099</v>
+        <v>-0.093</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.055</v>
+        <v>0.058</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.006</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>-0.154</v>
+        <v>-0.151</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0.016</v>
@@ -429,16 +342,16 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.027</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.049</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>-0.076</v>
@@ -481,22 +394,22 @@
         <v>152</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.067</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.044</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>-0.102</v>
+        <v>-0.11</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +446,7 @@
         <v>246</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.176</v>
+        <v>0.178</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0.019</v>
@@ -545,7 +458,7 @@
         <v>0.009</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.07</v>
+        <v>0.072</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0.018</v>
@@ -559,19 +472,19 @@
         <v>268</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>-0.081</v>
+        <v>-0.084</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>-0.144</v>
+        <v>-0.149</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0.021</v>
@@ -585,22 +498,22 @@
         <v>360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.058</v>
+        <v>0.065</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.064</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,22 +524,22 @@
         <v>380</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.06</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>-0.109</v>
+        <v>-0.114</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,22 +550,22 @@
         <v>428</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.03</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.068</v>
+        <v>0.067</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>-0.095</v>
+        <v>-0.097</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,6 +601,24 @@
       <c r="B14" s="1" t="n">
         <v>528</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.024</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -697,19 +628,19 @@
         <v>604</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.074</v>
+        <v>0.069</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>0.009</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.031</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0.02</v>
@@ -729,7 +660,7 @@
         <v>0.018</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>0.007</v>
@@ -748,6 +679,24 @@
       <c r="B17" s="1" t="n">
         <v>620</v>
       </c>
+      <c r="C17" s="0" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -757,22 +706,22 @@
         <v>643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0.02</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.063</v>
+        <v>0.067</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,22 +732,22 @@
         <v>688</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-0.087</v>
+        <v>-0.079</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>-0.129</v>
+        <v>-0.118</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,6 +757,24 @@
       <c r="B20" s="1" t="n">
         <v>703</v>
       </c>
+      <c r="C20" s="0" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>-0.076</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -817,22 +784,22 @@
         <v>724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.085</v>
+        <v>0.083</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>-0.066</v>
+        <v>-0.064</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,22 +810,22 @@
         <v>810</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>-0.072</v>
+        <v>-0.066</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.063</v>
+        <v>0.058</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0.008</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>-0.34</v>
+        <v>-0.124</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
   </sheetData>
@@ -880,10 +847,10 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -936,22 +903,22 @@
         <v>76</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.092</v>
+        <v>0.086</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.006</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.031</v>
+        <v>0.026</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,22 +929,22 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0.026</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,22 +981,22 @@
         <v>152</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.097</v>
+        <v>0.098</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.054</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0.044</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,22 +1033,22 @@
         <v>246</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.176</v>
+        <v>-0.074</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.106</v>
+        <v>0.022</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.009</v>
+        <v>0.006</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.07</v>
+        <v>-0.097</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,7 +1059,7 @@
         <v>268</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.101</v>
+        <v>0.102</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0.023</v>
@@ -1101,10 +1068,10 @@
         <v>0.04</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0.022</v>
@@ -1118,22 +1085,22 @@
         <v>360</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.028</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.032</v>
+        <v>0.027</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.055</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,22 +1111,22 @@
         <v>380</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.102</v>
+        <v>0.106</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.067</v>
+        <v>0.073</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,22 +1137,22 @@
         <v>428</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.024</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>-0.06</v>
+        <v>-0.059</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,6 +1188,24 @@
       <c r="B14" s="1" t="n">
         <v>528</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.022</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -1230,7 +1215,7 @@
         <v>604</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0.021</v>
@@ -1242,7 +1227,7 @@
         <v>0.006</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0.02</v>
@@ -1281,6 +1266,24 @@
       <c r="B17" s="1" t="n">
         <v>620</v>
       </c>
+      <c r="C17" s="0" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.021</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -1290,10 +1293,10 @@
         <v>643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0.034</v>
@@ -1302,10 +1305,10 @@
         <v>0.005</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.038</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,10 +1319,10 @@
         <v>688</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>0.038</v>
@@ -1328,10 +1331,10 @@
         <v>0.006</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,6 +1344,24 @@
       <c r="B20" s="1" t="n">
         <v>703</v>
       </c>
+      <c r="C20" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.024</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -1350,22 +1371,22 @@
         <v>724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,22 +1397,22 @@
         <v>810</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.014</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.028</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
     </row>
   </sheetData>
@@ -1412,11 +1433,11 @@
   </sheetPr>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="n">
@@ -1526,40 +1547,40 @@
         <v>0.141</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>-0.099</v>
+        <v>-0.093</v>
       </c>
       <c r="F3" s="1" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>-0.151</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>0.016</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="K3" s="1" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N3" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>-0.154</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="L3" s="1" t="n">
+      <c r="O3" s="1" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="P3" s="1" t="n">
         <v>0.02</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.019</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,16 +1597,16 @@
         <v>0.583</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.027</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0.049</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>-0.076</v>
@@ -1594,22 +1615,22 @@
         <v>0.024</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>0.026</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,40 +1697,40 @@
         <v>0.544</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.067</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0.044</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>-0.102</v>
+        <v>-0.11</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>0.097</v>
+        <v>0.098</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="M6" s="1" t="n">
         <v>0.054</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="O6" s="1" t="n">
         <v>0.044</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,7 +1797,7 @@
         <v>0.724</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.176</v>
+        <v>0.178</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.019</v>
@@ -1788,28 +1809,28 @@
         <v>0.009</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.07</v>
+        <v>0.072</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>0.018</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.176</v>
+        <v>-0.074</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.106</v>
+        <v>0.022</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0.009</v>
+        <v>0.006</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>0.07</v>
+        <v>-0.097</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,25 +1847,25 @@
         <v>0.424</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>-0.081</v>
+        <v>-0.084</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>-0.144</v>
+        <v>-0.149</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>0.021</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>0.101</v>
+        <v>0.102</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>0.023</v>
@@ -1853,10 +1874,10 @@
         <v>0.04</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>0.022</v>
@@ -1876,40 +1897,40 @@
         <v>0.122</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.058</v>
+        <v>0.065</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.064</v>
       </c>
       <c r="J10" s="1" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>-0.028</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>0.034</v>
       </c>
-      <c r="K10" s="1" t="n">
-        <v>-0.014</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>0.03</v>
-      </c>
       <c r="M10" s="1" t="n">
-        <v>0.032</v>
+        <v>0.027</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.055</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,40 +1947,40 @@
         <v>0.762</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.06</v>
       </c>
       <c r="F11" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>-0.114</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="H11" s="1" t="n">
+      <c r="M11" s="1" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N11" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <v>-0.109</v>
-      </c>
-      <c r="J11" s="1" t="n">
+      <c r="O11" s="1" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="P11" s="1" t="n">
         <v>0.022</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>0.021</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,40 +1997,40 @@
         <v>0.55</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.03</v>
       </c>
       <c r="F12" s="1" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>-0.097</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="L12" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>-0.095</v>
-      </c>
-      <c r="J12" s="1" t="n">
+      <c r="M12" s="1" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="P12" s="1" t="n">
         <v>0.024</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <v>0.023</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,41 +2096,41 @@
       <c r="D14" s="1" t="n">
         <v>0.94</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>43</v>
+      <c r="E14" s="0" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.022</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,25 +2147,25 @@
         <v>0.309</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.074</v>
+        <v>0.069</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0.009</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.031</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>0.02</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>0.021</v>
@@ -2156,7 +2177,7 @@
         <v>0.006</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="P15" s="1" t="n">
         <v>0.02</v>
@@ -2182,7 +2203,7 @@
         <v>0.018</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0.007</v>
@@ -2225,41 +2246,41 @@
       <c r="D17" s="1" t="n">
         <v>0.591</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>43</v>
+      <c r="E17" s="0" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.021</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,28 +2297,28 @@
         <v>0.45</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>0.02</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0.063</v>
+        <v>0.067</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="M18" s="1" t="n">
         <v>0.034</v>
@@ -2306,10 +2327,10 @@
         <v>0.005</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.038</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,28 +2347,28 @@
         <v>0.423</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>-0.087</v>
+        <v>-0.079</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>-0.129</v>
+        <v>-0.118</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="M19" s="1" t="n">
         <v>0.038</v>
@@ -2356,10 +2377,10 @@
         <v>0.006</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,41 +2396,41 @@
       <c r="D20" s="1" t="n">
         <v>0.559</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>43</v>
+      <c r="E20" s="0" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>-0.076</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.024</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,40 +2447,40 @@
         <v>0.627</v>
       </c>
       <c r="E21" s="1" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>-0.064</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L21" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="M21" s="1" t="n">
         <v>0.019</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>-0.066</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>0.022</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,49 +2497,49 @@
         <v>0.937</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>-0.072</v>
+        <v>-0.066</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.063</v>
+        <v>0.058</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0.008</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>-0.34</v>
+        <v>-0.124</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.014</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.028</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" s="1" t="n">
         <f aca="false">MIN(G3:G22)</f>
-        <v>0.041</v>
+        <v>0.015</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">MIN(H3:H22)</f>
@@ -2526,7 +2547,7 @@
       </c>
       <c r="I30" s="1" t="n">
         <f aca="false">MIN(I3:I22)</f>
-        <v>-0.34</v>
+        <v>-0.151</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">MIN(J3:J22)</f>
@@ -2535,7 +2556,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1" t="n">
         <f aca="false">MAX(G3:G22)</f>
@@ -2547,11 +2568,11 @@
       </c>
       <c r="I31" s="1" t="n">
         <f aca="false">MAX(I3:I22)</f>
-        <v>0.07</v>
+        <v>0.072</v>
       </c>
       <c r="J31" s="1" t="n">
         <f aca="false">MAX(J3:J22)</f>
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
